--- a/archivos/maxi-od-mini-ACTUALIZADO.xlsx
+++ b/archivos/maxi-od-mini-ACTUALIZADO.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3503.0</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7798138551558.0</t>
+          <t>7798138551558</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1845.0</t>
+          <t>1845</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7792180001665.0</t>
+          <t>7792180001665</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,7 +512,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3290.0</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7797470133620.0</t>
+          <t>7797470133620</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -533,14 +533,14 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$ 555,28</t>
+          <t>$ 520,57</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3289.0</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7797470133637.0</t>
+          <t>7797470133637</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3435.0</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7798138551572.0</t>
+          <t>7798138551572</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -589,14 +589,14 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$ 620,07</t>
+          <t>$ 578,43</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3434.0</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7797470132739.0</t>
+          <t>7797470132739</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -617,14 +617,14 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$ 555,27</t>
+          <t>$ 520,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5637.0</t>
+          <t>5637</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7792900806037.0</t>
+          <t>7792900806037</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -645,14 +645,14 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$ 1.851,15</t>
+          <t>$ 1.652,81</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3504.0</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7798138551589.0</t>
+          <t>7798138551589</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -673,7 +673,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$ 1.018,08</t>
+          <t>$ 925,53</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7793065000117.0</t>
+          <t>7793065000117</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7790380013525.0</t>
+          <t>7790380013525</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7790380012061.0</t>
+          <t>7790380012061</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7790380012122.0</t>
+          <t>7790380012122</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7790380013068.0</t>
+          <t>7790380013068</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7790380026044.0</t>
+          <t>7790380026044</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
